--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55FA56-3E84-4C45-A0D1-6334294BDA43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39B984-9775-4508-AA3D-BF097802F564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1725" windowWidth="21600" windowHeight="11145" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Mr Scott Heyburn</t>
+  </si>
+  <si>
+    <t>X_COORD</t>
+  </si>
+  <si>
+    <t>Y_COORD</t>
   </si>
 </sst>
 </file>
@@ -195,9 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -514,21 +523,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J2" sqref="J2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="53.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -556,8 +572,14 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -582,8 +604,14 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
+      <c r="J2" s="2">
+        <v>300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>500</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -608,8 +636,14 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
+      <c r="J3" s="2">
+        <v>400</v>
+      </c>
+      <c r="K3" s="2">
+        <v>600</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -634,8 +668,14 @@
       <c r="I4" t="s">
         <v>34</v>
       </c>
+      <c r="J4" s="2">
+        <v>500</v>
+      </c>
+      <c r="K4" s="2">
+        <v>700</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -660,8 +700,14 @@
       <c r="I5" t="s">
         <v>38</v>
       </c>
+      <c r="J5" s="2">
+        <v>600</v>
+      </c>
+      <c r="K5" s="2">
+        <v>800</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -685,6 +731,12 @@
       </c>
       <c r="I6" t="s">
         <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>700</v>
+      </c>
+      <c r="K6" s="2">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39B984-9775-4508-AA3D-BF097802F564}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A5F99D-92A0-4D45-89A3-404CB2FC3EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -54,18 +54,12 @@
     <t>tradeLocationVerification</t>
   </si>
   <si>
-    <t>Tree Surgeon in PO12 2HE</t>
-  </si>
-  <si>
     <t>Electrician</t>
   </si>
   <si>
     <t>Orkney</t>
   </si>
   <si>
-    <t>Electrician in Orkney</t>
-  </si>
-  <si>
     <t>Plumber</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>primeContact</t>
   </si>
   <si>
-    <t>error_Messages_Returned</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -166,6 +157,18 @@
   </si>
   <si>
     <t>Y_COORD</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Crown Thinning in PO12 2HE</t>
+  </si>
+  <si>
+    <t>Electric Boiler Repairs in Orkney</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K6"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,25 +540,24 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -567,30 +569,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -601,28 +600,28 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2">
-        <v>300</v>
-      </c>
-      <c r="K2" s="2">
-        <v>500</v>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -631,111 +630,111 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>400</v>
+      </c>
+      <c r="J3" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2">
-        <v>400</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2">
         <v>600</v>
       </c>
+      <c r="J5" s="2">
+        <v>800</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2">
-        <v>500</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
         <v>700</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2">
-        <v>600</v>
-      </c>
-      <c r="K5" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="2">
-        <v>700</v>
-      </c>
-      <c r="K6" s="2">
         <v>900</v>
       </c>
     </row>

--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A5F99D-92A0-4D45-89A3-404CB2FC3EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5362AED-D205-40B9-8528-3F3CC61CA04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="4845" yWindow="6045" windowWidth="21600" windowHeight="7020" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Diagnostic Testing in Angmering</t>
   </si>
   <si>
-    <t>Plumber in Rugby</t>
-  </si>
-  <si>
     <t>tradeName</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Electric Boiler Repairs in Orkney</t>
+  </si>
+  <si>
+    <t>Blocked Sinks in Rugby</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,16 +548,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -569,27 +569,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -601,27 +601,27 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2">
         <v>400</v>
@@ -644,16 +644,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -662,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2">
         <v>500</v>
@@ -676,16 +676,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -694,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2">
         <v>600</v>
@@ -708,16 +708,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>700</v>

--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5362AED-D205-40B9-8528-3F3CC61CA04B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCDD60-9DF5-4890-B151-A0623518EBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="6045" windowWidth="21600" windowHeight="7020" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView minimized="1" xWindow="4035" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -169,16 +169,94 @@
   </si>
   <si>
     <t>Blocked Sinks in Rugby</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>70 Worthing Avenue, Gosport, Hampshire, PO12 4DH</t>
+  </si>
+  <si>
+    <t>023 9258 3018</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fostertreecare@tiscali.co.uk</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>07818 446596</t>
+  </si>
+  <si>
+    <t>join_Date</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>checkatrade.com/FosterTreeCare</t>
+  </si>
+  <si>
+    <t>24 Burney Road, Gosport, Hampshire, PO12 2QB</t>
+  </si>
+  <si>
+    <t>07787 612040</t>
+  </si>
+  <si>
+    <t>skyfelltrees@gmail.com</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>07787 620324</t>
+  </si>
+  <si>
+    <t>checkatrade.com/SkyfellTreeSpecialists</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,8 +291,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,13 +632,19 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -569,16 +667,37 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -600,17 +719,38 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="6">
+        <v>40721</v>
+      </c>
+      <c r="M2" s="7">
+        <v>27790</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -632,17 +772,38 @@
       <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="6">
+        <v>41739</v>
+      </c>
+      <c r="M3" s="7">
+        <v>29190</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2">
+      <c r="P3" s="2">
         <v>400</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q3" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -664,17 +825,17 @@
       <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
+      <c r="P4" s="2">
         <v>500</v>
       </c>
-      <c r="J4" s="2">
+      <c r="Q4" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -696,17 +857,17 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2">
+      <c r="P5" s="2">
         <v>600</v>
       </c>
-      <c r="J5" s="2">
+      <c r="Q5" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -728,18 +889,22 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2">
+      <c r="P6" s="2">
         <v>700</v>
       </c>
-      <c r="J6" s="2">
+      <c r="Q6" s="2">
         <v>900</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="http://www.checkatrade.com/FosterTreeCare/" xr:uid="{03B599EA-752F-4757-B538-19EF5479C027}"/>
+    <hyperlink ref="N3" r:id="rId2" display="http://www.checkatrade.com/SkyfellTreeSpecialists/" xr:uid="{D97B2C45-4581-498B-A8E1-EA37F0DB8FDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCDD60-9DF5-4890-B151-A0623518EBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5508E6B-A1E4-4EE1-A487-1902A51ABD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4035" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -42,9 +42,6 @@
     <t>PO12 2HE</t>
   </si>
   <si>
-    <t>Tree Surgeon in Gosport</t>
-  </si>
-  <si>
     <t>tradeClassification</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Orkney</t>
   </si>
   <si>
-    <t>Plumber</t>
-  </si>
-  <si>
     <t>Rugby</t>
   </si>
   <si>
@@ -126,15 +120,6 @@
     <t>Search on Trade and Island Name - Verified Data Returned</t>
   </si>
   <si>
-    <t>Charnocks Automotive</t>
-  </si>
-  <si>
-    <t>Littlehampton, West Sussex</t>
-  </si>
-  <si>
-    <t>Dan Hunt</t>
-  </si>
-  <si>
     <t>Search on Trade and city - Verified Data Returned</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>Electric Boiler Repairs in Orkney</t>
   </si>
   <si>
-    <t>Blocked Sinks in Rugby</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -204,29 +186,128 @@
     <t>checkatrade.com/FosterTreeCare</t>
   </si>
   <si>
-    <t>24 Burney Road, Gosport, Hampshire, PO12 2QB</t>
-  </si>
-  <si>
-    <t>07787 612040</t>
-  </si>
-  <si>
-    <t>skyfelltrees@gmail.com</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
-    <t>07787 620324</t>
-  </si>
-  <si>
-    <t>checkatrade.com/SkyfellTreeSpecialists</t>
+    <t>Search_Selector</t>
+  </si>
+  <si>
+    <t>catID</t>
+  </si>
+  <si>
+    <t>FOS002</t>
+  </si>
+  <si>
+    <t>Unit 4, Dukeries Court, Hallcroft Industrial Estate, Retford, Nottinghamshire, DN22 7PX</t>
+  </si>
+  <si>
+    <t>07712 401461</t>
+  </si>
+  <si>
+    <t>01777 228982</t>
+  </si>
+  <si>
+    <t>info@burtonelectricalservices.net</t>
+  </si>
+  <si>
+    <t>Join date: 27/06/2011</t>
+  </si>
+  <si>
+    <t>DoB: 31/01/1976</t>
+  </si>
+  <si>
+    <t>66 Tony Humphries Road, Banbury, Oxfordshire, OX16 0FF</t>
+  </si>
+  <si>
+    <t>07960 633438</t>
+  </si>
+  <si>
+    <t>020 3686 0529</t>
+  </si>
+  <si>
+    <t>andrewwhitaker2009@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>Join date: 20/05/2014</t>
+  </si>
+  <si>
+    <t>DoB: 15/07/1989</t>
+  </si>
+  <si>
+    <t>Join date: 29/09/2016</t>
+  </si>
+  <si>
+    <t>DoB: 25/02/1974</t>
+  </si>
+  <si>
+    <t>19 St. Peters Close, Bognor Regis, PO21 5QA</t>
+  </si>
+  <si>
+    <t>07739 534957</t>
+  </si>
+  <si>
+    <t>trpselsey@gmail.com</t>
+  </si>
+  <si>
+    <t>DoB: 06/04/1970</t>
+  </si>
+  <si>
+    <t>Join date: 27/10/2016</t>
+  </si>
+  <si>
+    <t>Autopics Garage Services</t>
+  </si>
+  <si>
+    <t>01903 856016</t>
+  </si>
+  <si>
+    <t>07778 777641</t>
+  </si>
+  <si>
+    <t>Rustington, West Sussex</t>
+  </si>
+  <si>
+    <t>David Clarke &amp; Lisamarie Holt</t>
+  </si>
+  <si>
+    <t>Unit 15, Brookside Business Park, Brookside Avenue, Rustington, West Sussex, BN16 3LP</t>
+  </si>
+  <si>
+    <t>sales@autopics.co.uk</t>
+  </si>
+  <si>
+    <t>Join date: 15/02/2012</t>
+  </si>
+  <si>
+    <t>DoB: 02/01/1965</t>
+  </si>
+  <si>
+    <t>checkatrade.com/BurtonElectrical</t>
+  </si>
+  <si>
+    <t>checkatrade.com/PlanvaleServices</t>
+  </si>
+  <si>
+    <t>checkatrade.com/GlazingSolutions</t>
+  </si>
+  <si>
+    <t>checkatrade.com/AutopicsGarageS</t>
+  </si>
+  <si>
+    <t>Crown Thinning in Gosport</t>
+  </si>
+  <si>
+    <t>Air Conditioning Servicing/Repair in Rugby</t>
+  </si>
+  <si>
+    <t>Garage/Vehicle Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +342,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF101D41"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,13 +403,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,293 +737,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D56B88-33E9-468B-853E-05EE5D8A6600}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" customWidth="1"/>
+    <col min="17" max="17" width="53.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8">
+        <v>402921</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2">
+        <v>400</v>
+      </c>
+      <c r="S3" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10">
+        <v>308682</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
-        <v>40</v>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="2">
+        <v>500</v>
+      </c>
+      <c r="S4" s="2">
+        <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>381198</v>
+      </c>
+      <c r="B5" s="11">
+        <v>381198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6">
-        <v>40721</v>
-      </c>
-      <c r="M2" s="7">
-        <v>27790</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>41</v>
+      <c r="R5" s="2">
+        <v>700</v>
+      </c>
+      <c r="S5" s="2">
+        <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="11">
+        <v>230761</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="6">
-        <v>41739</v>
-      </c>
-      <c r="M3" s="7">
-        <v>29190</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="I6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2">
-        <v>500</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2">
-        <v>600</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="S6" s="2">
         <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="2">
-        <v>700</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>900</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="http://www.checkatrade.com/FosterTreeCare/" xr:uid="{03B599EA-752F-4757-B538-19EF5479C027}"/>
-    <hyperlink ref="N3" r:id="rId2" display="http://www.checkatrade.com/SkyfellTreeSpecialists/" xr:uid="{D97B2C45-4581-498B-A8E1-EA37F0DB8FDD}"/>
+    <hyperlink ref="P2" r:id="rId1" display="http://www.checkatrade.com/FosterTreeCare/" xr:uid="{03B599EA-752F-4757-B538-19EF5479C027}"/>
+    <hyperlink ref="P3" r:id="rId2" display="https://www.checkatrade.com/BurtonElectricalServices/" xr:uid="{8CE87993-B074-4C3C-AD12-389DCF974303}"/>
+    <hyperlink ref="P4" r:id="rId3" display="https://www.checkatrade.com/PlanvaleServices/" xr:uid="{C2747924-F47D-47F8-81CF-155437A51296}"/>
+    <hyperlink ref="P5" r:id="rId4" display="https://www.checkatrade.com/GlazingSolutions/" xr:uid="{E7691F3F-444A-474F-B2B9-C44E408E5E35}"/>
+    <hyperlink ref="P6" r:id="rId5" display="https://www.checkatrade.com/AutopicsGarageServices/" xr:uid="{ABB7356E-0E6F-49AB-8D5C-96EDD2F3456F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\Katalon Studio\Start\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\git\src\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5508E6B-A1E4-4EE1-A487-1902A51ABD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11457069-4E16-4FF0-AE09-153CDF0098A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Tree Surgeon</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Orkney</t>
   </si>
   <si>
-    <t>Rugby</t>
-  </si>
-  <si>
     <t>Diagnostic Testing</t>
   </si>
   <si>
@@ -301,6 +298,15 @@
   </si>
   <si>
     <t>Garage/Vehicle Services</t>
+  </si>
+  <si>
+    <t>Holyhead</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Rustington</t>
   </si>
 </sst>
 </file>
@@ -740,13 +746,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -766,22 +772,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -793,54 +799,54 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -849,57 +855,57 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>402921</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -908,31 +914,31 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="N3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" s="2">
         <v>400</v>
@@ -943,55 +949,55 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10">
         <v>308682</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="2">
         <v>500</v>
@@ -1008,46 +1014,46 @@
         <v>381198</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="P5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2">
         <v>700</v>
@@ -1058,55 +1064,55 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="11">
         <v>230761</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" s="2">
         <v>600</v>

--- a/Data Files/Search_Data.xlsx
+++ b/Data Files/Search_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidho\git\src\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11457069-4E16-4FF0-AE09-153CDF0098A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F970A1-FFE7-4A04-BEE1-AA397BE0E7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56648964-8086-4401-B8BD-AFCFF037A6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,13 +300,13 @@
     <t>Garage/Vehicle Services</t>
   </si>
   <si>
-    <t>Holyhead</t>
-  </si>
-  <si>
     <t>Shrewsbury</t>
   </si>
   <si>
     <t>Rustington</t>
+  </si>
+  <si>
+    <t>Hayling Island</t>
   </si>
 </sst>
 </file>
@@ -746,31 +746,31 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="1" max="2" width="26.265625" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" customWidth="1"/>
-    <col min="14" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="35.140625" customWidth="1"/>
-    <col min="17" max="17" width="53.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="36.265625" customWidth="1"/>
+    <col min="10" max="10" width="28.86328125" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.86328125" customWidth="1"/>
+    <col min="13" max="13" width="25.59765625" customWidth="1"/>
+    <col min="14" max="15" width="13.73046875" customWidth="1"/>
+    <col min="16" max="16" width="35.1328125" customWidth="1"/>
+    <col min="17" max="17" width="53.59765625" customWidth="1"/>
+    <col min="18" max="18" width="18.73046875" customWidth="1"/>
+    <col min="19" max="19" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -829,7 +829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -888,7 +888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -947,7 +947,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -958,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
@@ -1006,7 +1006,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>381198</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>87</v>
